--- a/export_pc.xlsx
+++ b/export_pc.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'PC'!$A$1:$I$12</definedName>
   </definedNames>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -295,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="40">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -413,361 +413,7 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="6" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="6" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="6" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="6" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="6" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="6" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="6" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -1248,181 +894,181 @@
     <row r="13" spans="1:10">
       <c r="A13" s="21"/>
       <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="44"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="38"/>
       <c r="J13"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="21"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="52"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="38"/>
       <c r="J14"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="21"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="60"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="38"/>
       <c r="J15"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="21"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="68"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="38"/>
       <c r="J16"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="21"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="76"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="38"/>
       <c r="J17"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="21"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="84"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="38"/>
       <c r="J18"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="21"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="92"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="38"/>
       <c r="J19"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="21"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="100"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
       <c r="J20"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="21"/>
-      <c r="B21" s="102"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="108"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
       <c r="J21"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="21"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="116"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
       <c r="J22"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="21"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="124"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
       <c r="J23"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="21"/>
-      <c r="B24" s="126"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="133"/>
-      <c r="I24" s="132"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
       <c r="J24"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="21"/>
-      <c r="B25" s="134"/>
-      <c r="C25" s="135"/>
-      <c r="D25" s="136"/>
-      <c r="E25" s="138"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="141"/>
-      <c r="I25" s="140"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
       <c r="J25"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="21"/>
-      <c r="B26" s="142"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="148"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
       <c r="J26"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="21"/>
-      <c r="B27" s="150"/>
-      <c r="C27" s="151"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="156"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
       <c r="J27"/>
     </row>
     <row r="28" spans="1:10">

--- a/export_pc.xlsx
+++ b/export_pc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Appendix 69</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Property Number:</t>
+  </si>
+  <si>
+    <t>PN2</t>
   </si>
   <si>
     <t>Description :</t>
@@ -66,6 +69,25 @@
   </si>
   <si>
     <t>Office/Officer</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>QUEZON
+FE MONALIE OCO ABARCA</t>
+  </si>
+  <si>
+    <t>FAD
+CHARLES ADRIAN TAMIS ODI</t>
+  </si>
+  <si>
+    <t>LGMED-PDMU
+ZYNELL B  MANGILIN</t>
+  </si>
+  <si>
+    <t>CAVITE-LGMES
+JENNY MARIE PASAPORTE ABINAL</t>
   </si>
 </sst>
 </file>
@@ -154,7 +176,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border/>
     <border>
       <top style="medium">
@@ -290,12 +312,17 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -410,11 +437,20 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="6" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,20 +755,20 @@
   <dimension ref="A1:J172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="true" style="0"/>
-    <col min="2" max="2" width="10.59765625" customWidth="true" style="0"/>
-    <col min="3" max="3" width="14.19921875" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.59765625" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.59765625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="20.59765625" customWidth="true" style="0"/>
-    <col min="7" max="7" width="10.59765625" customWidth="true" style="0"/>
+    <col min="2" max="2" width="10.625" customWidth="true" style="0"/>
+    <col min="3" max="3" width="14.25" customWidth="true" style="0"/>
+    <col min="4" max="4" width="10.625" customWidth="true" style="0"/>
+    <col min="5" max="5" width="10.625" customWidth="true" style="0"/>
+    <col min="6" max="6" width="20.625" customWidth="true" style="0"/>
+    <col min="7" max="7" width="10.625" customWidth="true" style="0"/>
     <col min="8" max="8" width="17" customWidth="true" style="0"/>
-    <col min="9" max="9" width="23.19921875" customWidth="true" style="0"/>
+    <col min="9" max="9" width="23.25" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" customHeight="1" ht="20.25">
@@ -747,7 +783,7 @@
       <c r="A2" s="21"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:10" customHeight="1" ht="17.4">
+    <row r="3" spans="1:10" customHeight="1" ht="18.75">
       <c r="A3" s="21"/>
       <c r="B3" s="24" t="s">
         <v>1</v>
@@ -760,7 +796,7 @@
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
     </row>
-    <row r="4" spans="1:10" customHeight="1" ht="17.4">
+    <row r="4" spans="1:10" customHeight="1" ht="18.75">
       <c r="A4" s="21"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -808,7 +844,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:10" customHeight="1" ht="13.8" s="8" customFormat="1">
+    <row r="8" spans="1:10" customHeight="1" ht="15" s="8" customFormat="1">
       <c r="A8" s="21"/>
       <c r="B8" s="27" t="s">
         <v>4</v>
@@ -832,12 +868,14 @@
       <c r="H9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="10" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:10" customHeight="1" ht="27" s="8" customFormat="1">
       <c r="A10" s="21"/>
       <c r="B10" s="33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
@@ -847,269 +885,329 @@
       <c r="H10" s="11"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:10" customHeight="1" ht="14.4" s="8" customFormat="1">
+    <row r="11" spans="1:10" s="8" customFormat="1">
       <c r="A11" s="21"/>
       <c r="B11" s="22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="14.4" s="8" customFormat="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="8" customFormat="1">
       <c r="A12" s="21"/>
       <c r="B12" s="23"/>
       <c r="C12" s="37"/>
       <c r="D12" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>14</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="21"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="38"/>
-      <c r="J13"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="39">
+        <v>1</v>
+      </c>
+      <c r="E13" s="39">
+        <v>1</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="39">
+        <v>1</v>
+      </c>
+      <c r="H13" s="41">
+        <v>1</v>
+      </c>
+      <c r="I13" s="39"/>
+      <c r="J13" s="42"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="21"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="38"/>
-      <c r="J14"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="39">
+        <v>1</v>
+      </c>
+      <c r="E14" s="39">
+        <v>1</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="39">
+        <v>1</v>
+      </c>
+      <c r="H14" s="41">
+        <v>1</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" s="42"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="21"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="38"/>
-      <c r="J15"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="39">
+        <v>1</v>
+      </c>
+      <c r="E15" s="39">
+        <v>1</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="39">
+        <v>1</v>
+      </c>
+      <c r="H15" s="41">
+        <v>1</v>
+      </c>
+      <c r="I15" s="39"/>
+      <c r="J15" s="42"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="21"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="38"/>
-      <c r="J16"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="39">
+        <v>1</v>
+      </c>
+      <c r="E16" s="39">
+        <v>1</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="39">
+        <v>1</v>
+      </c>
+      <c r="H16" s="41">
+        <v>1</v>
+      </c>
+      <c r="I16" s="39"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="21"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="39"/>
       <c r="J17"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="21"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="39"/>
       <c r="J18"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="21"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="39"/>
       <c r="J19"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="21"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
       <c r="J20"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="21"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
       <c r="J21"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="21"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
       <c r="J22"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="21"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
       <c r="J23"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="21"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
       <c r="J24"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="21"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
       <c r="J25"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="21"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
       <c r="J26"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="21"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
       <c r="J27"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31"/>
     </row>
     <row r="32" spans="1:10">
       <c r="B32" s="20"/>

--- a/export_pc.xlsx
+++ b/export_pc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Appendix 69</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>Property Number:</t>
-  </si>
-  <si>
-    <t>PN2</t>
   </si>
   <si>
     <t>Description :</t>
@@ -69,25 +66,6 @@
   </si>
   <si>
     <t>Office/Officer</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>QUEZON
-FE MONALIE OCO ABARCA</t>
-  </si>
-  <si>
-    <t>FAD
-CHARLES ADRIAN TAMIS ODI</t>
-  </si>
-  <si>
-    <t>LGMED-PDMU
-ZYNELL B  MANGILIN</t>
-  </si>
-  <si>
-    <t>CAVITE-LGMES
-JENNY MARIE PASAPORTE ABINAL</t>
   </si>
 </sst>
 </file>
@@ -176,7 +154,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border/>
     <border>
       <top style="medium">
@@ -312,17 +290,12 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -437,8 +410,8 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -448,9 +421,6 @@
     </xf>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="6" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,7 +725,7 @@
   <dimension ref="A1:J172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -868,14 +838,12 @@
       <c r="H9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:10" customHeight="1" ht="27" s="8" customFormat="1">
       <c r="A10" s="21"/>
       <c r="B10" s="33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
@@ -888,26 +856,26 @@
     <row r="11" spans="1:10" s="8" customFormat="1">
       <c r="A11" s="21"/>
       <c r="B11" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="D11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="E11" s="25" t="s">
         <v>10</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>11</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="I11" s="22" t="s">
         <v>13</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="8" customFormat="1">
@@ -915,123 +883,67 @@
       <c r="B12" s="23"/>
       <c r="C12" s="37"/>
       <c r="D12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>16</v>
-      </c>
       <c r="G12" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="39">
-        <v>1</v>
-      </c>
-      <c r="E13" s="39">
-        <v>1</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="39">
-        <v>1</v>
-      </c>
-      <c r="H13" s="41">
-        <v>1</v>
-      </c>
+      <c r="A13" s="21"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="41"/>
       <c r="I13" s="39"/>
-      <c r="J13" s="42"/>
+      <c r="J13"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="39">
-        <v>1</v>
-      </c>
-      <c r="E14" s="39">
-        <v>1</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="39">
-        <v>1</v>
-      </c>
-      <c r="H14" s="41">
-        <v>1</v>
-      </c>
+      <c r="A14" s="21"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="41"/>
       <c r="I14" s="39"/>
-      <c r="J14" s="42"/>
+      <c r="J14"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="39">
-        <v>1</v>
-      </c>
-      <c r="E15" s="39">
-        <v>1</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="39">
-        <v>1</v>
-      </c>
-      <c r="H15" s="41">
-        <v>1</v>
-      </c>
+      <c r="A15" s="21"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="39"/>
-      <c r="J15" s="42"/>
+      <c r="J15"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="38"/>
-      <c r="B16" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="39">
-        <v>1</v>
-      </c>
-      <c r="E16" s="39">
-        <v>1</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="39">
-        <v>1</v>
-      </c>
-      <c r="H16" s="41">
-        <v>1</v>
-      </c>
+      <c r="A16" s="21"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="39"/>
-      <c r="J16" s="42"/>
+      <c r="J16"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="21"/>
@@ -1166,48 +1078,44 @@
       <c r="J27"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
     </row>
     <row r="32" spans="1:10">
       <c r="B32" s="20"/>
